--- a/Seasonality Index using Moving Averages and Central MAs.xlsx
+++ b/Seasonality Index using Moving Averages and Central MAs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
   <si>
     <t>Quarter</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Predicted total</t>
+  </si>
+  <si>
+    <t>Trsting</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19992832291312423"/>
-          <c:y val="2.7777663562289716E-2"/>
+          <c:y val="2.7777663562289723E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -391,9 +394,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10105387989292035"/>
-          <c:y val="0.14648410463052439"/>
+          <c:y val="0.14648410463052441"/>
           <c:w val="0.64404025078260563"/>
-          <c:h val="0.66059743837503371"/>
+          <c:h val="0.66059743837503382"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -422,7 +425,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.6827547719325791E-3"/>
+                  <c:x val="1.6827547719325796E-3"/>
                   <c:y val="0.21057023224577345"/>
                 </c:manualLayout>
               </c:layout>
@@ -688,24 +691,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73455872"/>
-        <c:axId val="73461760"/>
+        <c:axId val="72927104"/>
+        <c:axId val="72928640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73455872"/>
+        <c:axId val="72927104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73461760"/>
+        <c:crossAx val="72928640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73461760"/>
+        <c:axId val="72928640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,7 +716,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73455872"/>
+        <c:crossAx val="72927104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -734,9 +737,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.69858250276854927"/>
-          <c:y val="0.44890058455486803"/>
-          <c:w val="0.301417497231451"/>
-          <c:h val="0.21003186612117355"/>
+          <c:y val="0.44890058455486814"/>
+          <c:w val="0.30141749723145111"/>
+          <c:h val="0.21003186612117358"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -752,7 +755,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -792,7 +795,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="1.8888698277079702E-2"/>
-                  <c:y val="0.22186315252260139"/>
+                  <c:y val="0.22186315252260141"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -929,24 +932,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79525376"/>
-        <c:axId val="79526912"/>
+        <c:axId val="73892992"/>
+        <c:axId val="73894528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79525376"/>
+        <c:axId val="73892992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79526912"/>
+        <c:crossAx val="73894528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79526912"/>
+        <c:axId val="73894528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +957,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79525376"/>
+        <c:crossAx val="73892992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -974,7 +977,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2886,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3953,7 +3956,7 @@
         <v>3.5401004859095718E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>5.4652552275730442E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>6.9492582523475576E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>5.2848960197987883E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>1.0334058581558801E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>2.6907801799351701E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>5.54393891998433E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>2.0686382553371224E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>2.9949586192006918E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:14">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>3.2873049239449309E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:14">
       <c r="I42" s="16">
         <f>AVERAGE(I2:I41)</f>
         <v>2.6394924025978556E-2</v>
@@ -4259,8 +4262,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="11" customFormat="1" ht="5.25" customHeight="1"/>
-    <row r="44" spans="1:11">
+    <row r="43" spans="1:14" s="11" customFormat="1" ht="5.25" customHeight="1"/>
+    <row r="44" spans="1:14">
       <c r="A44" s="17" t="s">
         <v>1</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:14">
       <c r="A45" s="13">
         <v>41</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>17648.841764497105</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:14">
       <c r="A46" s="13">
         <v>42</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>23452.065351145749</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:14">
       <c r="A47" s="13">
         <v>43</v>
       </c>
@@ -4353,8 +4356,11 @@
         <f t="shared" si="5"/>
         <v>28699.681254466155</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="N47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="13">
         <v>44</v>
       </c>
